--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372114.610842062</v>
+        <v>1369569.026143008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10357448.82631056</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418320.0334880272</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11005485.29021803</v>
+        <v>11005380.33195417</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>335.3965886158484</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.1647577214389</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>154.8473133620217</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>48.60603564323181</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>188.5251575642046</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>346.7225154609746</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>49.22623797673981</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>249.3718516103037</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.65660079878548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.146142788179368</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
-        <v>114.2173032139413</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.26041896250234</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>73.98898794535445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.46574022124193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.158480917584</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
         <v>1222.906241876376</v>
@@ -4553,7 +4553,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.53148622448</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1978.468598880909</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>649.6150593598222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>649.6150593598222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>649.6150593598222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="C8" t="n">
-        <v>1997.12368673424</v>
+        <v>1372.41708424393</v>
       </c>
       <c r="D8" t="n">
-        <v>1638.85798812749</v>
+        <v>1181.987632158875</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.069735529245</v>
+        <v>796.199379560631</v>
       </c>
       <c r="F8" t="n">
-        <v>842.0838307396377</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>522.1611424104423</v>
       </c>
       <c r="L8" t="n">
-        <v>593.4635795439093</v>
+        <v>661.4897982516954</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>2195.822675486408</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1004.154190575932</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>796.713905828337</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>571.084709140702</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797187</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.265981642434</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6291563257736</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1761270446466</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2417173833953</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0042623779398</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.4697044048247</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.6894541647542</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>571.9733873631766</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.705720206928</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1684.801683606264</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.678158606458</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.780669592131</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.168964849488</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.390323855922</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>930.454140928015</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>172.7987859375258</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080894</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>820.1893309912236</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.418923035683</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.11478882739</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.137245842419</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.667680678624</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.52146919056</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.35127892949</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.911794752712</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.922243854695</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.390323855922</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,13 +5653,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,7 +5890,7 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6598,22 +6598,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>432.9862109052757</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>482.6390612909563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>199.0051585876253</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2918063575383</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>151.0368508858077</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.537044377342596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.9280525533093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>137.2878198583898</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
-        <v>51.30683507832751</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.571561219435</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>72.44497470121472</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933216.205136121</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636056</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>483936.3770316738</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26332,28 +26332,28 @@
         <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140034</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>763071.323141695</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>6468.874198228083</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682769</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682752</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>100905.9587784758</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-390124.3108224174</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.568392127</v>
+        <v>199843.5683921271</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833247</v>
+        <v>44039.76229833227</v>
       </c>
       <c r="E6" t="n">
-        <v>-386509.7790867251</v>
+        <v>-393599.5358828283</v>
       </c>
       <c r="F6" t="n">
-        <v>369635.2558084629</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="G6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.155497978</v>
       </c>
       <c r="H6" t="n">
-        <v>377487.8934234136</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="I6" t="n">
-        <v>377487.8934234136</v>
+        <v>377453.155497978</v>
       </c>
       <c r="J6" t="n">
-        <v>201064.6742308207</v>
+        <v>201029.9363053849</v>
       </c>
       <c r="K6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.155497978</v>
       </c>
       <c r="L6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="M6" t="n">
-        <v>253279.382715355</v>
+        <v>253244.6447899195</v>
       </c>
       <c r="N6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.155497978</v>
       </c>
       <c r="O6" t="n">
-        <v>377487.8934234136</v>
+        <v>377453.155497978</v>
       </c>
       <c r="P6" t="n">
-        <v>377487.8934234136</v>
+        <v>377453.1554979782</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783205</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>13.84438010156464</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.10813404956866</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.37685414626765</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>98.05915633692602</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>166.1578840564784</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>66.19438848496213</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>79.9469436910515</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>459.3304791170305</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,19 +35173,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>282.4022844205469</v>
       </c>
       <c r="L8" t="n">
-        <v>271.0278223588042</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,13 +35261,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>312.1603990360709</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>325.3560717027003</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
